--- a/data/trans_orig/P55S3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P55S3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8CEB171-CCFD-4753-A8EF-3A2C8E2E6A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{963AE99C-B255-4169-8FC0-43C62E9D720D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{293792C6-C8D5-4B1B-ABCD-17E7232FDB5E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB622110-96E4-4F49-AF15-061B409483F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -713,7 +713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989BBBA5-A4FC-46F7-8F25-E0955CD4FB92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE02C731-10E5-4780-A111-9EAFF0C94FA8}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3150,7 +3150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5604E1-A0AB-4431-BF31-4BB14D6A6279}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B868AB-07B7-4BD3-ADEB-6C2B3BCEDD30}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5559,7 +5559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5962ADF2-761B-4B8D-B751-38991C4F98CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1BB20F-8AE4-4449-88B7-6D5428838189}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P55S3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P55S3-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{963AE99C-B255-4169-8FC0-43C62E9D720D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{140FE720-E36A-4B63-8789-39DD09957547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB622110-96E4-4F49-AF15-061B409483F0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0438B3B0-EF3E-410F-B77F-BF7B3C696AD6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -133,43 +133,43 @@
     <t>69,0%</t>
   </si>
   <si>
-    <t>26,36%</t>
+    <t>18,37%</t>
   </si>
   <si>
     <t>73,62%</t>
   </si>
   <si>
-    <t>30,57%</t>
+    <t>31,11%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>64,77%</t>
+    <t>65,88%</t>
   </si>
   <si>
     <t>12,96%</t>
   </si>
   <si>
-    <t>61,05%</t>
+    <t>55,39%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>65,56%</t>
+    <t>65,75%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>55,48%</t>
+    <t>44,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2023 (Tasa respuesta: 0,65%)</t>
@@ -184,16 +184,16 @@
     <t>4,76%</t>
   </si>
   <si>
-    <t>15,75%</t>
+    <t>15,32%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>37,22%</t>
@@ -208,19 +208,19 @@
     <t>65,55%</t>
   </si>
   <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>14,4%</t>
@@ -232,19 +232,19 @@
     <t>20,2%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
   </si>
   <si>
     <t>29,73%</t>
@@ -259,16 +259,16 @@
     <t>2,45%</t>
   </si>
   <si>
-    <t>14,07%</t>
+    <t>11,9%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>10,63%</t>
@@ -280,19 +280,19 @@
     <t>7,05%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -713,7 +713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE02C731-10E5-4780-A111-9EAFF0C94FA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9AEDB5-D013-4A38-A1A2-1FB951B22059}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3150,7 +3150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B868AB-07B7-4BD3-ADEB-6C2B3BCEDD30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BB8A3B-A740-4103-A538-51A2D8847D37}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5559,7 +5559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1BB20F-8AE4-4449-88B7-6D5428838189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2237F200-36C6-498F-963C-20DCE2570865}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
